--- a/data/trans_camb/LAWTONB_2R3-Clase-trans_camb.xlsx
+++ b/data/trans_camb/LAWTONB_2R3-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-7.155064166778279</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-9.180334480180836</v>
+        <v>-9.180334480180838</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.1081784215769835</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.411944746255306</v>
+        <v>-5.061366171465455</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.230308478926901</v>
+        <v>-8.468919172209366</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-9.801164976638942</v>
+        <v>-8.886332363921417</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-31.53941932085994</v>
+        <v>-29.52213447055821</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-26.05939155215655</v>
+        <v>-28.50139549898467</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-28.69816206216661</v>
+        <v>-26.59534494289161</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-10.18506089393566</v>
+        <v>-9.61735238176122</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-11.77982839354432</v>
+        <v>-11.55518016171164</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-12.40794194305087</v>
+        <v>-10.71632587869341</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>20.92677166377511</v>
+        <v>21.99860699021815</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.919150299950245</v>
+        <v>7.712730918050875</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.773003436661043</v>
+        <v>3.88965065203465</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.536211668450025</v>
+        <v>7.946271670068573</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>12.12224310013772</v>
+        <v>11.78633196173101</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.626409424598524</v>
+        <v>5.634759610398799</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>11.21227641623186</v>
+        <v>11.78980284125379</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.286963413913034</v>
+        <v>5.825563131907226</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.642702012737127</v>
+        <v>2.304714287081995</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.3532081631519372</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.4531851851057687</v>
+        <v>-0.4531851851057688</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.009993642516181234</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7553589298736385</v>
+        <v>-0.6929299719183523</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.890629141519671</v>
+        <v>-0.8830299629671876</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7688309372439134</v>
+        <v>-0.7800348315149078</v>
       </c>
       <c r="F8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8531082276951254</v>
+        <v>-0.8814259833720107</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7932303311130121</v>
+        <v>-0.7902096716844752</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7162373809530246</v>
+        <v>-0.6968435613086208</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7417535151628319</v>
+        <v>-0.7479097715885809</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6830354819260105</v>
+        <v>-0.6588444174562871</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>9.512873462912465</v>
+        <v>11.6550834903456</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.621897569389277</v>
+        <v>2.971051904930602</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.251677118363674</v>
+        <v>2.528117966440001</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.623515808623874</v>
+        <v>1.567856846417298</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.013939855941964</v>
+        <v>1.366003426549862</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7131733359880413</v>
+        <v>1.071271183758214</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.916451191399625</v>
+        <v>1.990676487274674</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.490811622494302</v>
+        <v>1.041143004995872</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5023943832588993</v>
+        <v>0.3825748499251277</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-13.59074323990944</v>
+        <v>-13.48442176030057</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-12.46828231009026</v>
+        <v>-13.06292976813318</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-15.86038064411282</v>
+        <v>-16.80707238984365</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-27.96867665170025</v>
+        <v>-28.37827961172227</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-32.87856443987395</v>
+        <v>-29.94414216471488</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-34.73467300552926</v>
+        <v>-34.27222217162939</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-10.35553746829746</v>
+        <v>-10.64948844517476</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-11.86487628451757</v>
+        <v>-12.35307880912092</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-14.64388607844067</v>
+        <v>-13.56229790960937</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.88828383189029</v>
+        <v>15.73772805809771</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.8566800981185</v>
+        <v>14.48604914750065</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.547762571011228</v>
+        <v>8.680168302880455</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>30.047350662152</v>
+        <v>31.98343636199694</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>28.05961046675495</v>
+        <v>32.13011872027677</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>12.83940274344341</v>
+        <v>12.42324610699442</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>14.53179470775803</v>
+        <v>14.22653566548928</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>13.4398048014415</v>
+        <v>12.70252506216646</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.998583308457706</v>
+        <v>6.215853829188878</v>
       </c>
     </row>
     <row r="13">
@@ -994,29 +994,29 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7541076895827604</v>
+        <v>-0.7652530962279852</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6767545320330883</v>
+        <v>-0.6637891236072658</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6854802837847705</v>
+        <v>-0.7046897828242769</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.8293549805059418</v>
+        <v>-0.8086580802431614</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>-0.7954987680517903</v>
+        <v>-0.7787042337068383</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5658677297875423</v>
+        <v>-0.5793023163219458</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5906648206879541</v>
+        <v>-0.5762828070618262</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.6048330634118676</v>
+        <v>-0.5926032506653285</v>
       </c>
     </row>
     <row r="15">
@@ -1027,25 +1027,27 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.822295239939442</v>
+        <v>3.572312778292631</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.728415666605271</v>
+        <v>3.268932938745773</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.072321030129039</v>
+        <v>2.027655040663583</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
-      <c r="H15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="n">
+        <v>1.976410859111542</v>
+      </c>
       <c r="I15" s="6" t="n">
-        <v>2.289871436889054</v>
+        <v>2.133094148123652</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.806713009434729</v>
+        <v>1.657292358929013</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.9852140740835791</v>
+        <v>0.9165829034149371</v>
       </c>
     </row>
     <row r="16">
@@ -1084,7 +1086,7 @@
         <v>0.7566959690051556</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>5.972072583076715</v>
+        <v>5.972072583076712</v>
       </c>
     </row>
     <row r="17">
@@ -1095,31 +1097,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.705912772507401</v>
+        <v>-5.59857999835846</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.369868654512423</v>
+        <v>-7.952811500803317</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.874172541560474</v>
+        <v>-6.359754978312392</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-16.7559761651506</v>
+        <v>-16.47313190116488</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-21.16795488330086</v>
+        <v>-20.25327287314109</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-13.70794156826079</v>
+        <v>-10.96584721279869</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-5.514941828934027</v>
+        <v>-5.438540829892126</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-7.861173991159655</v>
+        <v>-7.80561896750288</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-3.106798587287234</v>
+        <v>-2.660268463916125</v>
       </c>
     </row>
     <row r="18">
@@ -1130,31 +1132,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.09317775282922</v>
+        <v>14.39546383965257</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.196842783280779</v>
+        <v>8.447504554719774</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.3910911186505</v>
+        <v>10.22575956817584</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>21.85281799744149</v>
+        <v>21.51303078374114</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>18.66413188486374</v>
+        <v>22.86814296969945</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>27.33985438632682</v>
+        <v>27.05703304616522</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>13.46433048699545</v>
+        <v>12.9562391096009</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>9.717624414725298</v>
+        <v>9.038986591346104</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>13.76402989116406</v>
+        <v>14.36642240223731</v>
       </c>
     </row>
     <row r="19">
@@ -1180,7 +1182,7 @@
         <v>0.1021837573883965</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5941279999104407</v>
+        <v>0.5941279999104405</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.3774189891216864</v>
@@ -1189,7 +1191,7 @@
         <v>0.05895266487763062</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.4652721939009148</v>
+        <v>0.4652721939009146</v>
       </c>
     </row>
     <row r="20">
@@ -1200,31 +1202,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3857818385737122</v>
+        <v>-0.4043460443524429</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.578766796272201</v>
+        <v>-0.5277443265782824</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4000587657889692</v>
+        <v>-0.3898788720468232</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5251476274999838</v>
+        <v>-0.5382526532817694</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7270771381800987</v>
+        <v>-0.7052607185578437</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3943361841786955</v>
+        <v>-0.3358253936957906</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3108938520545614</v>
+        <v>-0.332032173545618</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4431150321437827</v>
+        <v>-0.4077093327720158</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1633637933158662</v>
+        <v>-0.1550612901205135</v>
       </c>
     </row>
     <row r="21">
@@ -1235,31 +1237,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.362862403837748</v>
+        <v>2.572599466278745</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.404631859867023</v>
+        <v>1.517394879297606</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.770941237405331</v>
+        <v>1.762084032924141</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>3.27694578020426</v>
+        <v>3.945420089987528</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.896058555061868</v>
+        <v>4.294338619366972</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>5.073767837672326</v>
+        <v>5.233938046863847</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.622469313132483</v>
+        <v>1.592472129541036</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.231621804030492</v>
+        <v>1.303330143224277</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.820471687981575</v>
+        <v>1.920692776459982</v>
       </c>
     </row>
     <row r="22">
@@ -1289,7 +1291,7 @@
         <v>5.599270517219598</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>4.003238603211415</v>
+        <v>4.003238603211412</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>11.75955119367051</v>
@@ -1309,31 +1311,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>4.207786663067834</v>
+        <v>4.472681549802706</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.948794616136541</v>
+        <v>-6.451582688321697</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.7952607955415919</v>
+        <v>0.5772056681440413</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.2323574578154</v>
+        <v>-2.96906505079227</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-6.823993640069613</v>
+        <v>-6.505670247128228</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-6.283938089928778</v>
+        <v>-5.800671949571997</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>5.65797703625115</v>
+        <v>4.762058903969116</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.928420095835467</v>
+        <v>-4.397811985662735</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.8352816029560995</v>
+        <v>0.199003953422111</v>
       </c>
     </row>
     <row r="24">
@@ -1344,31 +1346,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>18.99436176147141</v>
+        <v>20.15475550064896</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.963160939965139</v>
+        <v>5.976706822305899</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11.44760478710704</v>
+        <v>12.13420707147206</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>23.17988549296768</v>
+        <v>24.49871587148461</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>17.27800628420776</v>
+        <v>18.31097841659691</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>12.14038493041457</v>
+        <v>12.70423310170635</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>18.05561074312764</v>
+        <v>18.48972463984554</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>7.808777597332152</v>
+        <v>6.874847394354176</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>10.22368153990172</v>
+        <v>10.46743784327388</v>
       </c>
     </row>
     <row r="25">
@@ -1394,7 +1396,7 @@
         <v>0.3721063517262814</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.266040104179591</v>
+        <v>0.2660401041795908</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.7775501638879275</v>
@@ -1414,31 +1416,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2570375170528576</v>
+        <v>0.2461002610414696</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3804639127958773</v>
+        <v>-0.3565263734963656</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.04276920792016311</v>
+        <v>0.02739041118437921</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2115028350952612</v>
+        <v>-0.1699075723086835</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3591045641181028</v>
+        <v>-0.3315472832862111</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2715729001734098</v>
+        <v>-0.2776018413144574</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3196245236592169</v>
+        <v>0.2687761804960616</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2116663157519104</v>
+        <v>-0.2521035050205552</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.03473092709356844</v>
+        <v>0.008993212060007669</v>
       </c>
     </row>
     <row r="27">
@@ -1449,31 +1451,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.563133140880239</v>
+        <v>1.665934521564701</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4945144334991051</v>
+        <v>0.4842175586255918</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9038712077316143</v>
+        <v>0.9689426747156893</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.270182605139229</v>
+        <v>2.747347871453591</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.702288250164171</v>
+        <v>2.083852715022933</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.332122307691028</v>
+        <v>1.404064112439293</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.445062701383834</v>
+        <v>1.424349174016172</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6237607029366732</v>
+        <v>0.5401912325068857</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.8215626428150185</v>
+        <v>0.8379676504972555</v>
       </c>
     </row>
     <row r="28">
@@ -1523,31 +1525,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.071420381579877</v>
+        <v>-3.770192761727125</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.635678662996231</v>
+        <v>0.6822458284680071</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.420133088943158</v>
+        <v>-0.902494956271426</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-4.124607928659754</v>
+        <v>-5.472467333496565</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-12.36340187800968</v>
+        <v>-12.54874431691841</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.391475547903203</v>
+        <v>-1.457022188368819</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.4435024609901284</v>
+        <v>-0.1534162284201329</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-4.545572929127133</v>
+        <v>-4.921932366461466</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.553422561822008</v>
+        <v>1.692044339926808</v>
       </c>
     </row>
     <row r="30">
@@ -1558,31 +1560,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>20.37417962746893</v>
+        <v>20.44942495831726</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>21.14434031248606</v>
+        <v>21.96740575123398</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>19.48232617436217</v>
+        <v>19.88312431677187</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>18.9444687044424</v>
+        <v>17.95235408604369</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>11.15325638295241</v>
+        <v>10.46584817808032</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>18.10561467136863</v>
+        <v>17.82063275527682</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>16.83825532386479</v>
+        <v>17.64833121434891</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>11.57210835312778</v>
+        <v>12.00953548131064</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>16.506072519005</v>
+        <v>16.5322473376047</v>
       </c>
     </row>
     <row r="31">
@@ -1628,31 +1630,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2476261000589171</v>
+        <v>-0.2371582621726948</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.04242413581108671</v>
+        <v>0.0006983826145029745</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1766424478952626</v>
+        <v>-0.1145134751050023</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1357647995918423</v>
+        <v>-0.1516314316448908</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3820345070926923</v>
+        <v>-0.3933255960306918</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.06992496687445245</v>
+        <v>-0.04214461396417916</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.01592143336961724</v>
+        <v>-0.03181393477999248</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.186289307090293</v>
+        <v>-0.1921071210442428</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.06269134275027891</v>
+        <v>0.05260241493461848</v>
       </c>
     </row>
     <row r="33">
@@ -1663,31 +1665,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>3.217011039154463</v>
+        <v>3.149054636691552</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>3.841686405507033</v>
+        <v>3.826027682270747</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>3.022927186646309</v>
+        <v>3.115686479015396</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.070245907197777</v>
+        <v>1.003188117869226</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.640642048008539</v>
+        <v>0.5894670242052037</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.00846817115399</v>
+        <v>0.9801817895690859</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.090897913479165</v>
+        <v>1.157425757818643</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.7404053861725308</v>
+        <v>0.7815636151011014</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.099797671452144</v>
+        <v>1.023315308745049</v>
       </c>
     </row>
     <row r="34">
@@ -1735,29 +1737,29 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-75.71116958691454</v>
+        <v>-96.53392676514149</v>
       </c>
       <c r="D35" s="5" t="inlineStr"/>
       <c r="E35" s="5" t="n">
-        <v>-18.59626209800971</v>
+        <v>-29.46048651097306</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>0.9683672908716998</v>
+        <v>1.362812459122492</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>1.337881071938971</v>
+        <v>1.340192503704767</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>10.99339594116133</v>
+        <v>11.23261131401609</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.8851368249167589</v>
+        <v>0.8870990363790113</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>1.375794697463802</v>
+        <v>1.292693050599686</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>11.60446798739981</v>
+        <v>12.06674584470496</v>
       </c>
     </row>
     <row r="36">
@@ -1772,25 +1774,25 @@
       </c>
       <c r="D36" s="5" t="inlineStr"/>
       <c r="E36" s="5" t="n">
-        <v>84.92908025682941</v>
+        <v>84.88746205622347</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>12.55025093787269</v>
+        <v>12.72630689260372</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>12.82502305108379</v>
+        <v>13.66017906232466</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>22.14729369451997</v>
+        <v>22.12605481326679</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>12.05844407989118</v>
+        <v>12.00430752237577</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>13.08797234893537</v>
+        <v>13.42493331231483</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>21.85528920297376</v>
+        <v>22.11739571136887</v>
       </c>
     </row>
     <row r="37">
@@ -1837,22 +1839,22 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>0.04349010224570784</v>
+        <v>0.05388550860753163</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.0666739114164793</v>
+        <v>0.05713877094850219</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5097245091704486</v>
+        <v>0.5680059053436382</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.04093069281245926</v>
+        <v>0.0349438684005585</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.05994204493424075</v>
+        <v>0.08014504096821104</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.5386454611050681</v>
+        <v>0.5773509315349337</v>
       </c>
     </row>
     <row r="39">
@@ -1866,22 +1868,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>0.8387749224409452</v>
+        <v>0.8591219920090375</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.8786597187301619</v>
+        <v>0.9318182217305839</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.530429927522038</v>
+        <v>1.560990089187279</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.8066358057046319</v>
+        <v>0.8130821896903173</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.8624990456355067</v>
+        <v>0.9301560433470334</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.462685443041285</v>
+        <v>1.494661116513717</v>
       </c>
     </row>
     <row r="40">
@@ -1902,7 +1904,7 @@
         <v>2.174735824220256</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>3.025193523198277</v>
+        <v>3.025193523198283</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>7.482873984781923</v>
@@ -1920,7 +1922,7 @@
         <v>3.651927803509533</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>6.752738582307205</v>
+        <v>6.752738582307202</v>
       </c>
     </row>
     <row r="41">
@@ -1931,31 +1933,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>2.713995324812431</v>
+        <v>3.597332134820615</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.702196110233347</v>
+        <v>-1.509445178643607</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.9702722662889084</v>
+        <v>-0.6073853227846082</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>2.563001098506521</v>
+        <v>2.833267617167841</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>0.6218658159091417</v>
+        <v>0.1792269359362231</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>5.832195197370114</v>
+        <v>6.133726307753117</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>4.360051286672233</v>
+        <v>4.399852292167147</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.6708813425673124</v>
+        <v>0.7146206898795657</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>3.929152854711457</v>
+        <v>4.045035238264309</v>
       </c>
     </row>
     <row r="42">
@@ -1966,31 +1968,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>12.49456579271093</v>
+        <v>12.66032540333951</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>6.132855565759121</v>
+        <v>6.016171810893164</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>6.221439714285738</v>
+        <v>6.438303204811769</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>12.33481585098866</v>
+        <v>12.04874928011526</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>9.874079721841797</v>
+        <v>9.545670564416325</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>13.38451143044395</v>
+        <v>13.79936635709733</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>10.97434575601811</v>
+        <v>10.87535536772715</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>6.9725860534902</v>
+        <v>7.000260513485294</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>9.116530973324592</v>
+        <v>9.470258194272557</v>
       </c>
     </row>
     <row r="43">
@@ -2007,7 +2009,7 @@
         <v>0.1687063277745177</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.2346810515658966</v>
+        <v>0.234681051565897</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.4024584543738043</v>
@@ -2025,7 +2027,7 @@
         <v>0.2259031221207025</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.4177149195397947</v>
+        <v>0.4177149195397945</v>
       </c>
     </row>
     <row r="44">
@@ -2036,31 +2038,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.1845706005523076</v>
+        <v>0.2326992664774268</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.11893063874026</v>
+        <v>-0.1040632259666014</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.05798829463441049</v>
+        <v>-0.04166431208225112</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1173121368574695</v>
+        <v>0.1430804932825795</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.02793091365614858</v>
+        <v>0.007998749123926075</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2826191217520481</v>
+        <v>0.2844965862695225</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2507648434194593</v>
+        <v>0.2447045065031346</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.03580189694310569</v>
+        <v>0.04112536613650172</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.2219446526309559</v>
+        <v>0.224667581064991</v>
       </c>
     </row>
     <row r="45">
@@ -2071,31 +2073,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.163641178782419</v>
+        <v>1.197120790753851</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.5783870384653638</v>
+        <v>0.5490058575577033</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.5927548928390686</v>
+        <v>0.6021450875552523</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.7293332802775423</v>
+        <v>0.758774440716954</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.5955025347651223</v>
+        <v>0.5877389325032462</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.8385784056990252</v>
+        <v>0.9028558947920046</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.753553192335947</v>
+        <v>0.743273101370771</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.4837913984244025</v>
+        <v>0.4792761256469253</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.6322931196636931</v>
+        <v>0.6556767655914112</v>
       </c>
     </row>
     <row r="46">
